--- a/Escenarios de calidad.xlsx
+++ b/Escenarios de calidad.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F3ED99-3F01-42CE-9577-30EEBA603D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thrif\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5172E5E5-3B2B-4B50-883A-2F213D315956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="2832" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,17 +283,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Abadi"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -357,30 +374,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -717,1214 +738,1307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:Y29"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:R19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="17" max="17" width="19.109375" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="1" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="1" t="s">
+      <c r="T2" s="4"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="2:25">
-      <c r="B3" s="1" t="s">
+      <c r="Y2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="1" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="1" t="s">
+      <c r="U3" s="5"/>
+      <c r="V3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="X3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Y3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:25">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="5"/>
+      <c r="L4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="4" t="s">
+      <c r="U4" s="5"/>
+      <c r="V4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-    </row>
-    <row r="6" spans="2:25">
-      <c r="B6" s="8" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="2" t="s">
+      <c r="M6" s="7"/>
+      <c r="N6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="8" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8" t="s">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="8" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8" t="s">
+      <c r="W6" s="7"/>
+      <c r="X6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="8"/>
-    </row>
-    <row r="7" spans="2:25">
-      <c r="B7" s="3" t="s">
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="3" t="s">
+      <c r="J7" s="9"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="3" t="s">
+      <c r="O7" s="9"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3" t="s">
+      <c r="R7" s="9"/>
+      <c r="S7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="3"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="3" t="s">
+      <c r="T7" s="9"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3" t="s">
+      <c r="W7" s="9"/>
+      <c r="X7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Y7" s="3"/>
-    </row>
-    <row r="8" spans="2:25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-    </row>
-    <row r="9" spans="2:25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-    </row>
-    <row r="10" spans="2:25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-    </row>
-    <row r="11" spans="2:25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-    </row>
-    <row r="12" spans="2:25" ht="15" customHeight="1">
-      <c r="B12" s="1" t="s">
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="1" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="1" t="s">
+      <c r="O12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="1" t="s">
+      <c r="T12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" s="6"/>
-    </row>
-    <row r="13" spans="2:25" ht="15" customHeight="1">
-      <c r="B13" s="1" t="s">
+      <c r="Y12" s="4"/>
+    </row>
+    <row r="13" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="1" t="s">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U13" s="7"/>
-      <c r="V13" s="1" t="s">
+      <c r="U13" s="5"/>
+      <c r="V13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="W13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="X13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:25">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="4" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="O14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="4" t="s">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="T14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="7"/>
-      <c r="V14" s="4" t="s">
+      <c r="U14" s="5"/>
+      <c r="V14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X14" s="4" t="s">
+      <c r="X14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="2:25">
-      <c r="B16" s="8" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="8" t="s">
+      <c r="O16" s="7"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8" t="s">
+      <c r="R16" s="7"/>
+      <c r="S16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="8" t="s">
+      <c r="T16" s="7"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8" t="s">
+      <c r="W16" s="7"/>
+      <c r="X16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y16" s="8"/>
-    </row>
-    <row r="17" spans="2:25">
-      <c r="B17" s="3" t="s">
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="3" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="3" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3" t="s">
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="3" t="s">
+      <c r="O17" s="9"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
+      <c r="R17" s="9"/>
+      <c r="S17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="3" t="s">
+      <c r="T17" s="9"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3" t="s">
+      <c r="W17" s="9"/>
+      <c r="X17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Y17" s="3"/>
-    </row>
-    <row r="18" spans="2:25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-    </row>
-    <row r="19" spans="2:25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="2:25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="2:25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="2:25" ht="18" customHeight="1">
-      <c r="B22" s="1" t="s">
+      <c r="Y17" s="9"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="1" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="1" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="1" t="s">
+      <c r="O22" s="4"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="2:25" ht="15" customHeight="1">
-      <c r="B23" s="1" t="s">
+      <c r="T22" s="4"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="5"/>
+      <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="1" t="s">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T23" s="1" t="s">
+      <c r="T23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-    </row>
-    <row r="24" spans="2:25">
-      <c r="B24" s="4" t="s">
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="4" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="4" t="s">
+      <c r="K24" s="5"/>
+      <c r="L24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="4" t="s">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="4" t="s">
+      <c r="R24" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="T24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-    </row>
-    <row r="25" spans="2:25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-    </row>
-    <row r="26" spans="2:25">
-      <c r="B26" s="8" t="s">
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8" t="s">
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8" t="s">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="8" t="s">
+      <c r="O26" s="7"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8" t="s">
+      <c r="R26" s="7"/>
+      <c r="S26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-    </row>
-    <row r="27" spans="2:25">
-      <c r="B27" s="3" t="s">
+      <c r="T26" s="7"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="3" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="3" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3" t="s">
+      <c r="M27" s="9"/>
+      <c r="N27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="3" t="s">
+      <c r="O27" s="9"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3" t="s">
+      <c r="R27" s="9"/>
+      <c r="S27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="T27" s="3"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-    </row>
-    <row r="28" spans="2:25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-    </row>
-    <row r="29" spans="2:25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="L27:M29"/>
-    <mergeCell ref="N27:O29"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="R24:R25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="T24:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q27:R29"/>
-    <mergeCell ref="S27:T29"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="D27:E29"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G27:H29"/>
-    <mergeCell ref="I27:J29"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="X7:Y9"/>
+    <mergeCell ref="Q7:R9"/>
+    <mergeCell ref="S7:T9"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="V7:W9"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="N7:O9"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="D7:E9"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C19"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H19"/>
+    <mergeCell ref="I17:J19"/>
     <mergeCell ref="V16:W16"/>
     <mergeCell ref="X16:Y16"/>
     <mergeCell ref="V17:W19"/>
@@ -1949,75 +2063,42 @@
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="Q17:R19"/>
     <mergeCell ref="S17:T19"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C19"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H19"/>
-    <mergeCell ref="I17:J19"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="D7:E9"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L7:M9"/>
-    <mergeCell ref="N7:O9"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="X7:Y9"/>
-    <mergeCell ref="Q7:R9"/>
-    <mergeCell ref="S7:T9"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="V7:W9"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="D27:E29"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G27:H29"/>
+    <mergeCell ref="I27:J29"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="L27:M29"/>
+    <mergeCell ref="N27:O29"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R29"/>
+    <mergeCell ref="S27:T29"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>